--- a/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
+++ b/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workarea\VLSI\github\riscduino_board\KiCad_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\riscduino_board\KiCad_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CAD60B-4248-4A25-AC8D-47F054030B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8FB5C4CA-E7B4-4FF6-8ACB-CCC8359EDCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2865" windowWidth="25440" windowHeight="11700" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Material!$A$1:$I$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Material!$A$3:$I$41</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Riscduino_Uno!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -360,15 +361,47 @@
   </si>
   <si>
     <t>Additional Componets</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MAX1232ESA+T ( Power Supervisory)</t>
+  </si>
+  <si>
+    <t>LM1117MP-3.3 (3.3 V Regulator)</t>
+  </si>
+  <si>
+    <t>CH340C (USB2UART IC)</t>
+  </si>
+  <si>
+    <t>LM1117S-ADJ (Adjustable Regulator)</t>
+  </si>
+  <si>
+    <t>W25Q32JVSS (SPI FLASH)</t>
+  </si>
+  <si>
+    <t>MicroMod DIY Carrier Kit</t>
+  </si>
+  <si>
+    <t>Riscduino Components Tracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -422,53 +455,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -503,24 +520,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{ACF1AF71-CC53-4A73-A592-3D4445BA7810}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" name="Id" tableColumnId="1"/>
-      <queryTableField id="2" name="Designator" tableColumnId="2"/>
-      <queryTableField id="3" name="Footprint" tableColumnId="3"/>
-      <queryTableField id="4" name="Quantity" tableColumnId="4"/>
-      <queryTableField id="5" name="Designation" tableColumnId="5"/>
-      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
-      <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
-      <queryTableField id="7" name="Column1" tableColumnId="7"/>
-      <queryTableField id="8" name="_1" tableColumnId="8"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{BB10E1CF-82FF-4EEB-8719-042576114D58}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
@@ -539,36 +538,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF97C961-A304-4AE1-B5E6-69826091A257}" name="Table_Riscduino_Uno3" displayName="Table_Riscduino_Uno3" ref="A1:I32" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I32" xr:uid="{AF97C961-A304-4AE1-B5E6-69826091A257}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{54541A2A-6BA8-409F-89EC-E994BCE07228}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{3567C9AC-2ED3-49CC-A538-7AEA8F374213}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{182071EF-5154-4C8F-80AD-0812A7B15058}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{75FF9B22-DA97-4A9A-A235-F6B4D79C0268}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FB21D56B-C44A-4547-BE01-74E984CA6EB1}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{B1F98A80-8F48-43EB-BB9E-0D12E55500A4}" uniqueName="9" name="Sent" queryTableFieldId="9" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{6447C674-95A3-49D3-8CA0-8C63F85C61A4}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3DEB14F1-073A-4CFF-AA5F-C26060058C33}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{283EF735-A494-46F5-8A03-366B8A0CC786}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98B7252D-78B5-4B9D-89E1-EE430E4BD830}" name="Table_Riscduino_Uno" displayName="Table_Riscduino_Uno" ref="A1:I31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I31" xr:uid="{98B7252D-78B5-4B9D-89E1-EE430E4BD830}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CDD749DC-2319-4F1D-A510-69E4D9EAC0DC}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{BBFDF21D-45BF-41E8-8F42-F99DB6CD59C3}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F573C0B8-348A-49A1-8E06-E183C1A055D4}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BBFDF21D-45BF-41E8-8F42-F99DB6CD59C3}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F573C0B8-348A-49A1-8E06-E183C1A055D4}" uniqueName="3" name="Footprint" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{D2BD8D15-445D-4F0E-8BD0-2FC97B1130F1}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5A0ECB2B-48AC-463A-81EA-913158C2D2AA}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5A0ECB2B-48AC-463A-81EA-913158C2D2AA}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{4471D993-36D3-4CB1-8DC0-5FE2E6574C7B}" uniqueName="9" name="Sent" queryTableFieldId="9"/>
-    <tableColumn id="6" xr3:uid="{94A4FDB2-C27D-437D-B482-4FDE6D04C445}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A5F0BD9C-1AC7-4993-BD25-169C9C5EC464}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{C578F725-57A3-42F2-9ED2-7E93E15DBF70}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{94A4FDB2-C27D-437D-B482-4FDE6D04C445}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A5F0BD9C-1AC7-4993-BD25-169C9C5EC464}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C578F725-57A3-42F2-9ED2-7E93E15DBF70}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,377 +852,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE02533-BADC-4543-BD1A-9ADFC3CD4C72}">
-  <dimension ref="A1:I38"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>A2+1</f>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f>A3+1</f>
+      <c r="F5" s="7"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f>A11+1</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A7+1</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f>A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <f>A9+1</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f>A10+1</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>A8+1</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="8">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" ref="A13:A30" si="0">A12+1</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f>A5+1</f>
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>A7+1</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>A8+1</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>A6+1</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="8">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F11" s="8">
-        <v>200</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>A11+1</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="8">
-        <v>200</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>A12+1</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
@@ -1256,22 +1189,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f>A13+1</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="8">
         <v>200</v>
@@ -1287,81 +1220,81 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f>A14+1</f>
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8">
+        <v>200</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8">
+        <v>200</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="8">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>A15+1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="8">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>A16+1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="8">
         <v>100</v>
@@ -1377,21 +1310,21 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f>A17+1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="8">
         <v>100</v>
@@ -1407,21 +1340,21 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="8">
         <v>100</v>
@@ -1437,285 +1370,291 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>A19+1</f>
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="8">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="8">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F20" s="8">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f>A20+1</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="8">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F21" s="8">
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="8">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f>A21+1</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="8">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F22" s="8">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f>A22+1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f>A23+1</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f>A24+1</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="8">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f>A25+1</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f>A26+1</f>
+      <c r="F28" s="8">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="F27" s="8">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f>A27+1</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="8">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <f>A28+1</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F29" s="8">
         <v>15</v>
@@ -1731,112 +1670,217 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="8">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f>A30+1</f>
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="8">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D35" s="4">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="F35" s="8"/>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="8"/>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="7">
-        <v>200</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>29</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="7">
+      <c r="F41" s="8">
         <v>200</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
+++ b/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\riscduino_board\KiCad_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workarea\VLSI\github\riscduino_board\KiCad_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FF92DC-2F27-4DE5-A096-EC4CFB7E29B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5832190-B3B0-4B16-98CC-0DE3718D7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
   </bookViews>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,12 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -800,83 +794,85 @@
     <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,17 +1196,17 @@
   </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
@@ -1218,31 +1214,31 @@
     <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="35.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1257,34 +1253,34 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="37" t="s">
         <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1296,37 +1292,37 @@
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="40">
         <v>4.03</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="26">
         <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1336,55 +1332,55 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="26">
         <f>A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="28"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="26">
         <f>A11+1</f>
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="23" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1394,29 +1390,29 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="28"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="26">
         <f>A7+1</f>
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1426,29 +1422,29 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="28"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="26">
         <f>A6+1</f>
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="37" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1460,37 +1456,37 @@
       <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="26">
         <f>A9+1</f>
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1500,29 +1496,29 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="28"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="26">
         <f>A10+1</f>
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1532,26 +1528,26 @@
       <c r="I11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="28"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="26">
         <f>A8+1</f>
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="6">
@@ -1566,34 +1562,34 @@
       <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="12">
         <v>7.78</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="26">
         <f t="shared" ref="A13:A32" si="0">A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="6">
@@ -1608,26 +1604,26 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="30"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>15</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="6">
@@ -1642,34 +1638,34 @@
       <c r="I14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="17">
         <v>0.32</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="26" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="6">
@@ -1684,34 +1680,34 @@
       <c r="I15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="17">
         <v>45</v>
       </c>
       <c r="L15" s="5">
         <v>573876</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3">
         <v>21</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="6">
@@ -1726,34 +1722,34 @@
       <c r="I16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="17">
         <v>0.76</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="6">
@@ -1768,34 +1764,34 @@
       <c r="I17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="12">
         <v>4</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="6">
@@ -1810,34 +1806,34 @@
       <c r="I18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="12">
         <v>7.14</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="6">
@@ -1852,34 +1848,34 @@
       <c r="I19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="18">
         <v>1.84</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="6">
@@ -1894,34 +1890,34 @@
       <c r="I20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="12">
         <v>4.03</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="6">
@@ -1936,34 +1932,34 @@
       <c r="I21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="12">
         <v>1.69</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="26">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="26" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="6">
@@ -1978,34 +1974,34 @@
       <c r="I22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="17">
         <v>28.8</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="30" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="6">
@@ -2020,61 +2016,61 @@
       <c r="I23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="12">
         <v>13.44</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="26" t="s">
         <v>196</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="39"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="6">
         <v>25</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="12">
         <v>21</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="41" t="s">
+      <c r="M24" s="29" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="26">
         <f>A23+1</f>
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="6">
@@ -2089,34 +2085,34 @@
       <c r="I25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="26">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F26" s="6">
@@ -2131,34 +2127,34 @@
       <c r="I26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="12">
         <v>30</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="30" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="6">
@@ -2173,59 +2169,59 @@
       <c r="I27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="12">
         <v>11.7</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="39"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="6">
         <v>25</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="12">
         <v>21</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="21" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="26">
         <f>A27+1</f>
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F29" s="6">
@@ -2240,34 +2236,34 @@
       <c r="I29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="12">
         <v>355.5</v>
       </c>
       <c r="L29" s="5">
         <v>9781102352</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="27" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="26" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="6">
@@ -2282,26 +2278,26 @@
       <c r="I30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="16"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="30"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="26" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="6">
@@ -2316,34 +2312,34 @@
       <c r="I31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="12">
         <v>1.68</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L31" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="M31" s="29" t="s">
+      <c r="M31" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="26">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F32" s="6">
@@ -2358,32 +2354,32 @@
       <c r="I32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="17">
         <v>117.85</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="26">
         <f>A32+1</f>
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="6">
@@ -2398,80 +2394,80 @@
       <c r="I33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="18">
         <v>6.25</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="L33" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="31"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="16"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="30"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="34"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="6"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="16"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="30"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="31"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="34"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="30"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="26">
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="6"/>
@@ -2484,25 +2480,25 @@
       <c r="I37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="16"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="30"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="26">
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="26" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="6"/>
@@ -2515,82 +2511,82 @@
       <c r="I38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="16"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="30"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="34"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="6"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="16"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="30"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="26">
         <v>29</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="34"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="6">
         <v>5</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="19">
         <v>665</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M40" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="31"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="34"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="6"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="16"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="30"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="26">
         <v>30</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="26" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="6">
@@ -2599,30 +2595,30 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K42" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="16">
         <v>573740</v>
       </c>
-      <c r="M42" s="29" t="s">
+      <c r="M42" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
-        <f>A42+1</f>
+      <c r="A43" s="26">
+        <f t="shared" ref="A43:A51" si="1">A42+1</f>
         <v>31</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F43" s="6">
@@ -2631,449 +2627,449 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K43" s="22" t="s">
+      <c r="K43" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="16">
         <v>573821</v>
       </c>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
-        <f>A43+1</f>
+      <c r="A44" s="26">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="24" t="s">
         <v>116</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="5">
         <v>100</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="12">
         <v>0.8</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
-        <f>A44+1</f>
+      <c r="A45" s="26">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="5">
         <v>100</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="12">
         <v>1.6</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
-        <f>A45+1</f>
+      <c r="A46" s="26">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="5">
         <v>50</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="18">
         <v>13.44</v>
       </c>
-      <c r="L46" s="21" t="s">
+      <c r="L46" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
-        <f>A46+1</f>
+      <c r="A47" s="26">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="21">
+      <c r="D47" s="15"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="16">
         <v>4</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L47" s="21" t="s">
+      <c r="L47" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="M47" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
-        <f>A47+1</f>
+      <c r="A48" s="26">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="21">
+      <c r="D48" s="15"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="16">
         <v>4</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20" t="s">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
-        <f>A48+1</f>
+      <c r="A49" s="26">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="21">
+      <c r="D49" s="15"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="16">
         <v>6</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20" t="s">
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K49" s="21" t="s">
+      <c r="K49" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L49" s="21" t="s">
+      <c r="L49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
-        <f>A49+1</f>
+      <c r="A50" s="26">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="21">
+      <c r="D50" s="15"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="16">
         <v>2</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="L50" s="21" t="s">
+      <c r="L50" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
-        <f>A50+1</f>
+      <c r="A51" s="26">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="21">
-        <v>10</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20" t="s">
+      <c r="D51" s="15"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="16">
+        <v>10</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K51" s="21" t="s">
+      <c r="K51" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="L51" s="21" t="s">
+      <c r="L51" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="M51" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="14">
         <v>40</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="24" t="s">
         <v>169</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="18"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="5">
         <v>5</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="K52" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="16">
         <v>1089239</v>
       </c>
-      <c r="M52" s="37" t="s">
+      <c r="M52" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="14">
         <v>41</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="24" t="s">
         <v>180</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="18"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="5">
         <v>20</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="18">
         <v>133.97</v>
       </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="37" t="s">
+      <c r="L53" s="16"/>
+      <c r="M53" s="27" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="14">
         <v>42</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="18"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="5">
         <v>4</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="18">
         <v>334.65</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54" s="28">
         <v>1359619915861</v>
       </c>
-      <c r="M54" s="37" t="s">
+      <c r="M54" s="27" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="14">
         <v>43</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="24" t="s">
         <v>187</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="18"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="5">
         <v>25</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="18">
         <v>26</v>
       </c>
-      <c r="L55" s="38" t="s">
+      <c r="L55" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="M55" s="29" t="s">
+      <c r="M55" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+      <c r="A56" s="24">
         <v>44</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
         <v>190</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="18"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="5">
         <v>5</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="18">
         <v>139</v>
       </c>
-      <c r="L56" s="38" t="s">
+      <c r="L56" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="M56" s="29" t="s">
+      <c r="M56" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="42">
+      <c r="A57" s="14">
         <v>45</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="24" t="s">
         <v>193</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="18"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="5">
         <v>100</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="18">
         <v>16</v>
       </c>
-      <c r="L57" s="38" t="s">
+      <c r="L57" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="M57" s="29" t="s">
+      <c r="M57" s="21" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="K4:K8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M22" r:id="rId1" xr:uid="{7A47B26B-FB63-431B-AD45-421CCA2B1484}"/>

--- a/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
+++ b/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workarea\VLSI\github\riscduino_board\KiCad_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5832190-B3B0-4B16-98CC-0DE3718D7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7567AF9-8002-4E0A-98BD-38E51517B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>reg</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -842,6 +845,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,27 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,10 +1197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,12 +1221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -1280,7 +1283,7 @@
       <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="30" t="s">
         <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1292,16 +1295,16 @@
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="34">
         <v>4.03</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1322,7 +1325,7 @@
       <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1332,10 +1335,10 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
@@ -1354,14 +1357,14 @@
       <c r="E6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="34"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
@@ -1380,7 +1383,7 @@
       <c r="E7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1390,10 +1393,10 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="34"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
@@ -1412,7 +1415,7 @@
       <c r="E8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1422,10 +1425,10 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="34"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
@@ -1444,7 +1447,7 @@
       <c r="E9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1456,7 +1459,7 @@
       <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="32" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="36" t="s">
@@ -1465,7 +1468,7 @@
       <c r="L9" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="35" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1486,7 +1489,7 @@
       <c r="E10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1496,10 +1499,10 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -1518,7 +1521,7 @@
       <c r="E11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1528,10 +1531,10 @@
       <c r="I11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="34"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
@@ -1735,7 +1738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1777,7 +1780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1819,7 +1822,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1861,7 +1864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1903,7 +1906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1945,7 +1948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1987,7 +1990,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1995,13 +1998,13 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="37" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="6">
@@ -2029,14 +2032,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>196</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="6">
         <v>25</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <f>A23+1</f>
         <v>21</v>
@@ -2097,8 +2100,11 @@
       <c r="M25" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2140,21 +2146,21 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="6">
@@ -2182,12 +2188,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="30"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="6">
         <v>25</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <f>A27+1</f>
         <v>24</v>
@@ -2248,8 +2254,11 @@
       <c r="M29" s="27" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2283,7 +2292,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2301,7 +2310,7 @@
         <v>63</v>
       </c>
       <c r="F31" s="6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>10</v>
@@ -2325,7 +2334,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2364,8 +2373,11 @@
       <c r="M32" s="21" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <f>A32+1</f>
         <v>28</v>
@@ -2406,8 +2418,11 @@
       <c r="M33" s="21" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="3"/>
       <c r="C34" s="23"/>
@@ -2422,7 +2437,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="3"/>
       <c r="C35" s="23"/>
@@ -2437,7 +2452,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>90</v>
       </c>
@@ -2454,7 +2469,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>1</v>
       </c>
@@ -2485,7 +2500,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>2</v>
       </c>
@@ -2516,7 +2531,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="3"/>
       <c r="C39" s="23"/>
@@ -2531,7 +2546,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="22"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>29</v>
       </c>
@@ -2560,7 +2575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>91</v>
       </c>
@@ -2577,7 +2592,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>30</v>
       </c>
@@ -2608,7 +2623,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <f t="shared" ref="A43:A51" si="1">A42+1</f>
         <v>31</v>
@@ -2640,7 +2655,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2670,7 +2685,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2700,7 +2715,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2730,7 +2745,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2760,7 +2775,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3054,22 +3069,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="K4:K8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M22" r:id="rId1" xr:uid="{7A47B26B-FB63-431B-AD45-421CCA2B1484}"/>

--- a/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
+++ b/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workarea\VLSI\github\riscduino_board\KiCad_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\riscduino_board\KiCad_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7567AF9-8002-4E0A-98BD-38E51517B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6344A9-2BE3-4828-A1AB-9774C781CB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
+    <workbookView xWindow="780" yWindow="420" windowWidth="27690" windowHeight="15060" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="5" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>Crystal_SMD_Abracon_ABM8G-4Pin_3.2x2.5mm</t>
-  </si>
-  <si>
     <t>ASE-10.000MHZ-LC-T</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_Abracon_ABM8G-4Pin_3.2x2.5mm (SMD_3225)</t>
   </si>
 </sst>
 </file>
@@ -845,37 +845,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,8 +1199,8 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,12 +1221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -1257,14 +1257,14 @@
         <v>7</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -1283,8 +1283,8 @@
       <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>83</v>
+      <c r="F4" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -1295,17 +1295,17 @@
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="34">
+      <c r="J4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="40">
         <v>4.03</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>127</v>
+      <c r="L4" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1325,7 +1325,7 @@
       <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1335,10 +1335,10 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
@@ -1349,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1357,14 +1357,14 @@
       <c r="E6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
@@ -1375,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1383,7 +1383,7 @@
       <c r="E7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1393,10 +1393,10 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
@@ -1407,7 +1407,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1415,7 +1415,7 @@
       <c r="E8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1425,10 +1425,10 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
@@ -1439,7 +1439,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -1447,8 +1447,8 @@
       <c r="E9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>85</v>
+      <c r="F9" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>10</v>
@@ -1459,17 +1459,17 @@
       <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="36" t="s">
-        <v>141</v>
-      </c>
       <c r="L9" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>154</v>
+        <v>144</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1481,15 +1481,15 @@
         <v>40</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="F10" s="37"/>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1499,10 +1499,10 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="35"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -1513,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1521,7 +1521,7 @@
       <c r="E11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1531,10 +1531,10 @@
       <c r="I11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
@@ -1566,16 +1566,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="12">
         <v>7.78</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6">
         <v>200</v>
@@ -1642,16 +1642,16 @@
         <v>10</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="17">
         <v>0.32</v>
       </c>
       <c r="L14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="17">
         <v>45</v>
@@ -1693,7 +1693,7 @@
         <v>573876</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>25</v>
@@ -1726,16 +1726,16 @@
         <v>10</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="17">
         <v>0.76</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1768,16 +1768,16 @@
         <v>10</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="12">
         <v>4</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1810,16 +1810,16 @@
         <v>10</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="12">
         <v>7.14</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1852,16 +1852,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="18">
         <v>1.84</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,16 @@
         <v>10</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="12">
         <v>4.03</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>33</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="6">
         <v>100</v>
@@ -1936,16 +1936,16 @@
         <v>10</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="12">
         <v>1.69</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="6">
         <v>50</v>
@@ -1978,16 +1978,16 @@
         <v>10</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="17">
         <v>28.8</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1998,14 +1998,14 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="37" t="s">
-        <v>95</v>
+      <c r="E23" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="F23" s="6">
         <v>25</v>
@@ -2020,26 +2020,26 @@
         <v>10</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="12">
         <v>13.44</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="38"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="37"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="6">
         <v>25</v>
       </c>
@@ -2047,16 +2047,16 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K24" s="12">
         <v>21</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="6">
         <v>10</v>
@@ -2089,19 +2089,19 @@
         <v>10</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="M25" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="6">
         <v>25</v>
@@ -2134,34 +2134,34 @@
         <v>10</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K26" s="12">
         <v>30</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="21" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>93</v>
+      <c r="E27" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="6">
         <v>25</v>
@@ -2176,24 +2176,24 @@
         <v>10</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" s="12">
         <v>11.7</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="38"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="37"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="6">
         <v>25</v>
       </c>
@@ -2201,16 +2201,16 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K28" s="12">
         <v>21</v>
       </c>
       <c r="L28" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="6">
         <v>10</v>
@@ -2243,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K29" s="12">
         <v>355.5</v>
@@ -2252,10 +2252,10 @@
         <v>9781102352</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2322,16 +2322,16 @@
         <v>10</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K31" s="12">
         <v>1.68</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2343,13 +2343,13 @@
         <v>66</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="6">
         <v>15</v>
@@ -2364,17 +2364,17 @@
         <v>10</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K32" s="17">
         <v>117.85</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2383,16 +2383,16 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="6">
         <v>15</v>
@@ -2407,19 +2407,19 @@
         <v>10</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" s="18">
         <v>6.25</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
     </row>
     <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="23"/>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="4" t="s">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="26"/>
@@ -2563,21 +2563,21 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K40" s="19">
         <v>665</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="23"/>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="6">
         <v>200</v>
@@ -2611,16 +2611,16 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L42" s="16">
         <v>573740</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="6">
         <v>200</v>
@@ -2643,16 +2643,16 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L43" s="16">
         <v>573821</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="14"/>
@@ -2673,16 +2673,16 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K44" s="12">
         <v>0.8</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="14"/>
@@ -2703,16 +2703,16 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K45" s="12">
         <v>1.6</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="14"/>
@@ -2733,16 +2733,16 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K46" s="18">
         <v>13.44</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="13"/>
@@ -2763,16 +2763,16 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="L47" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L47" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="M47" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="13"/>
@@ -2793,16 +2793,16 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="13"/>
@@ -2823,16 +2823,16 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="13"/>
@@ -2853,16 +2853,16 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="13"/>
@@ -2883,16 +2883,16 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="14"/>
@@ -2912,16 +2912,16 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L52" s="16">
         <v>1089239</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="14"/>
@@ -2941,14 +2941,14 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K53" s="18">
         <v>133.97</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="14"/>
@@ -2968,7 +2968,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K54" s="18">
         <v>334.65</v>
@@ -2977,7 +2977,7 @@
         <v>1359619915861</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="14"/>
@@ -2997,16 +2997,16 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K55" s="18">
         <v>26</v>
       </c>
       <c r="L55" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="M55" s="21" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="14"/>
@@ -3026,16 +3026,16 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K56" s="18">
         <v>139</v>
       </c>
       <c r="L56" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="M56" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="M56" s="21" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="14"/>
@@ -3055,36 +3055,36 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K57" s="18">
         <v>16</v>
       </c>
       <c r="L57" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M57" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="M57" s="21" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="K4:K8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M22" r:id="rId1" xr:uid="{7A47B26B-FB63-431B-AD45-421CCA2B1484}"/>

--- a/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
+++ b/KiCad_PCB/Riscduino_Componets_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\riscduino_board\KiCad_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workarea\VLSI\github\riscduino_board\KiCad_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6344A9-2BE3-4828-A1AB-9774C781CB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF106B44-B323-4956-9CF8-9994D073C6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="420" windowWidth="27690" windowHeight="15060" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Material!$A$3:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -845,6 +846,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,27 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,12 +1222,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -1283,7 +1284,7 @@
       <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="30" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1295,16 +1296,16 @@
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="34">
         <v>4.03</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="35" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1325,7 +1326,7 @@
       <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1335,10 +1336,10 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
@@ -1357,14 +1358,14 @@
       <c r="E6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="34"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
@@ -1383,7 +1384,7 @@
       <c r="E7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1393,10 +1394,10 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="34"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
@@ -1415,7 +1416,7 @@
       <c r="E8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1425,10 +1426,10 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="34"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
@@ -1447,7 +1448,7 @@
       <c r="E9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1459,7 +1460,7 @@
       <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="32" t="s">
         <v>139</v>
       </c>
       <c r="K9" s="36" t="s">
@@ -1468,7 +1469,7 @@
       <c r="L9" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="35" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1489,7 +1490,7 @@
       <c r="E10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1499,10 +1500,10 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -1521,7 +1522,7 @@
       <c r="E11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1531,10 +1532,10 @@
       <c r="I11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="34"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
@@ -1998,13 +1999,13 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="37" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="6">
@@ -2037,9 +2038,9 @@
         <v>195</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="6">
         <v>25</v>
       </c>
@@ -2147,20 +2148,20 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="6">
@@ -2189,11 +2190,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="30"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="6">
         <v>25</v>
       </c>
@@ -3069,22 +3070,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="K4:K8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M22" r:id="rId1" xr:uid="{7A47B26B-FB63-431B-AD45-421CCA2B1484}"/>
